--- a/September 2018/Saturday_Sunday_Weekday/Validation/Valid_SatModel_September.xlsx
+++ b/September 2018/Saturday_Sunday_Weekday/Validation/Valid_SatModel_September.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Class project\GCD_BugFlowExperiment\September 2018\Saturday_Sunday_Weekday\Validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3744CB2-7F20-433D-AB3C-296947A86A3A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F2606CE-73A7-4DC3-B0AB-E6458A44BB48}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17268" windowHeight="7932" xr2:uid="{27F7C71D-A1EB-4CED-91F2-6379A086909F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17268" windowHeight="7932" xr2:uid="{E824926C-81F3-4233-B066-53651F269F2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Table of Contents" sheetId="19" r:id="rId1"/>
@@ -781,7 +781,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60099563-371C-44BF-9DAC-5C43BBA5DF13}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6F3EEE-A6CD-4BFA-8850-2E3B5C2F6036}">
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1521,53 +1521,53 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" location="Scalar!A1" display="Convert" xr:uid="{C7028E56-8E7D-4400-854C-C1EC375F64C2}"/>
-    <hyperlink ref="A3" location="d!A1" display="d" xr:uid="{729B0E5B-8B98-4AB6-BAA5-51A339B0AF47}"/>
-    <hyperlink ref="A4" location="Scalar!A1" display="Daily_RelRange" xr:uid="{ED70894C-3862-4F0F-9A17-D5CEDB39EC03}"/>
-    <hyperlink ref="A5" location="Duration!A1" display="Duration" xr:uid="{BEF96188-6CBB-4EAF-B004-EFB204743C33}"/>
-    <hyperlink ref="A7" location="Energy_Rate!A1" display="Energy_Rate" xr:uid="{69CE86D1-012C-4B79-83BC-D5D4C25CEB3D}"/>
-    <hyperlink ref="A8" location="EQ10_EnergyGen!A1" display="EQ10_EnergyGen" xr:uid="{102983EA-1778-4DE0-8DA5-A46B624F88FA}"/>
-    <hyperlink ref="A9" location="Scalar!A1" display="EQ11_EnergyRevenue" xr:uid="{07A2B07E-166D-4F1C-9A16-29A763DAF74C}"/>
-    <hyperlink ref="A10" location="EQ12_Simulation!A1" display="EQ12_Simulation" xr:uid="{B773A8BD-D5BD-4291-9D97-10A4B0B7D920}"/>
-    <hyperlink ref="A11" location="Scalar!A1" display="EQ1_ResMassBal" xr:uid="{C3BD8829-1031-4089-B36A-99E3FFF8121F}"/>
-    <hyperlink ref="A12" location="Scalar!A1" display="EQ2_reqpowerstorage" xr:uid="{15F5A9CE-43BB-4B44-B080-D22B0008E4C1}"/>
-    <hyperlink ref="A13" location="Scalar!A1" display="EQ3_maxstor" xr:uid="{D6226670-F1C2-4FF5-ADE9-1CD73A9E80A9}"/>
-    <hyperlink ref="A14" location="EQ4_MaxR!A1" display="EQ4_MaxR" xr:uid="{A9234F7A-21E6-431A-B14A-F925398A8481}"/>
-    <hyperlink ref="A15" location="EQ5_MinR!A1" display="EQ5_MinR" xr:uid="{93C86DE3-EFFD-46B3-9EFE-D7A2C1DF70DD}"/>
-    <hyperlink ref="A16" location="EQ6_Rel_Range!A1" display="EQ6_Rel_Range" xr:uid="{B5342E53-8A6A-4A42-8FC8-B32157DF3CC6}"/>
-    <hyperlink ref="A17" location="Scalar!A1" display="EQ7_RelVolume" xr:uid="{FB2574E4-1421-4E21-8AAB-05D0A6AC2B6D}"/>
-    <hyperlink ref="A18" location="EQ8_OffPeak_Release!A1" display="EQ8_OffPeak_Release" xr:uid="{F443249E-FF0D-488F-9D71-F08FF27B1C8A}"/>
-    <hyperlink ref="A19" location="EQ9_EnergyGen_Max!A1" display="EQ9_EnergyGen_Max" xr:uid="{ECE425EC-2D3B-45BB-B2B0-DBEB081CED6C}"/>
-    <hyperlink ref="A20" location="Scalar!A1" display="evap" xr:uid="{4D51C48A-3E15-4E93-95DA-E003DDA3D50C}"/>
-    <hyperlink ref="A21" location="Scalar!A1" display="FStore" xr:uid="{7208AFF7-6D6B-4EA6-9E5A-27A86C49107C}"/>
-    <hyperlink ref="A22" location="Scalar!A1" display="Inflow" xr:uid="{C660F371-7CD5-4F6D-9D48-F217BCE12C8B}"/>
-    <hyperlink ref="A23" location="Scalar!A1" display="Initstorage" xr:uid="{9AA89C83-98BA-4E42-B6B1-68AEAAC7B965}"/>
-    <hyperlink ref="A24" location="Scalar!A1" display="maxRel" xr:uid="{5357B4BB-78BF-4F31-A80D-A15EA63BE6D5}"/>
-    <hyperlink ref="A25" location="Scalar!A1" display="maxstorage" xr:uid="{316A702B-686F-4F9A-AC09-F6631012F353}"/>
-    <hyperlink ref="A26" location="Scalar!A1" display="minRel" xr:uid="{7E9981F0-FA9C-49F1-BD0A-D10A5011181F}"/>
-    <hyperlink ref="A27" location="Scalar!A1" display="minstorage" xr:uid="{53FA2321-3B15-4CA2-9C81-1866B5B9BAA2}"/>
-    <hyperlink ref="A28" location="ModelResults!A1" display="ModelResults" xr:uid="{BAA796DE-12D6-4046-9EC6-BA7449A4964A}"/>
-    <hyperlink ref="A29" location="modpar!A1" display="modpar" xr:uid="{03A7A88E-6D6C-4B3D-8754-124FD544E858}"/>
-    <hyperlink ref="A30" location="Num_Days!A1" display="Num_Days" xr:uid="{68AB030B-2624-4AB7-97D8-D4F0BC6B007B}"/>
-    <hyperlink ref="A31" location="Scalar!A1" display="ObjectiveVal" xr:uid="{73066ABD-36D1-48EB-BEDC-B4AC791C2010}"/>
-    <hyperlink ref="A32" location="Observed_Rel!A1" display="Observed_Rel" xr:uid="{AF1E57E2-D703-4E38-B077-06F3AF5318C6}"/>
-    <hyperlink ref="A33" location="p!A1" display="p" xr:uid="{F103A3F6-475E-46B7-9A95-6C867881654C}"/>
-    <hyperlink ref="A35" location="Scalar!A1" display="Released_vol" xr:uid="{E4968380-4311-4CC5-8C31-C7E90BAAD45D}"/>
-    <hyperlink ref="A36" location="RStore!A1" display="RStore" xr:uid="{5F7D5888-F7A9-44F5-A090-09C28470270C}"/>
-    <hyperlink ref="A37" location="Scalar!A1" display="Saturdays" xr:uid="{1AFCC9C8-0435-40BB-88FC-8C27C4480CD8}"/>
-    <hyperlink ref="A38" location="Scalar!A1" display="Sstore" xr:uid="{E7573DDE-66DF-4BEC-BA05-CE3807B889D0}"/>
-    <hyperlink ref="A39" location="Scalar!A1" display="storage" xr:uid="{DDC0EE76-00BC-42A2-9836-BE20BD42DFD7}"/>
-    <hyperlink ref="A40" location="Scalar!A1" display="Sundays" xr:uid="{16AD69BA-E6B4-432E-910A-A19815961A2C}"/>
-    <hyperlink ref="A41" location="Scalar!A1" display="Totaldays" xr:uid="{273BAE32-5527-4C1E-B73C-B2F60B60E8EC}"/>
-    <hyperlink ref="A42" location="Scalar!A1" display="Weekdays" xr:uid="{AA65EB6E-7D39-4D77-84F8-A6BEA2458ECF}"/>
-    <hyperlink ref="A43" location="XStore!A1" display="XStore" xr:uid="{2024F152-8B4F-4580-9A09-CD218954C1FA}"/>
+    <hyperlink ref="A2" location="Scalar!A1" display="Convert" xr:uid="{95BBC7B3-F4FA-40F8-9AFD-D2621ACF32E3}"/>
+    <hyperlink ref="A3" location="d!A1" display="d" xr:uid="{6D7C565D-01A0-4A28-997B-80710F025A1E}"/>
+    <hyperlink ref="A4" location="Scalar!A1" display="Daily_RelRange" xr:uid="{82460F4F-FAFD-47EA-B9EB-54DE8B14AABF}"/>
+    <hyperlink ref="A5" location="Duration!A1" display="Duration" xr:uid="{70153D4A-24DF-482D-9D7A-E4F27F2FFB61}"/>
+    <hyperlink ref="A7" location="Energy_Rate!A1" display="Energy_Rate" xr:uid="{406960F5-6BFF-448D-B520-85C5F5AE397D}"/>
+    <hyperlink ref="A8" location="EQ10_EnergyGen!A1" display="EQ10_EnergyGen" xr:uid="{51D5CA25-A353-4DF1-ACE5-B068FE54DC0C}"/>
+    <hyperlink ref="A9" location="Scalar!A1" display="EQ11_EnergyRevenue" xr:uid="{92BA759C-2F84-43C8-BA9D-1E1C58129C24}"/>
+    <hyperlink ref="A10" location="EQ12_Simulation!A1" display="EQ12_Simulation" xr:uid="{2BD1E830-4643-40DD-9F2B-7F870C7E5445}"/>
+    <hyperlink ref="A11" location="Scalar!A1" display="EQ1_ResMassBal" xr:uid="{A55EC138-7B51-46BB-B480-D13381494B6A}"/>
+    <hyperlink ref="A12" location="Scalar!A1" display="EQ2_reqpowerstorage" xr:uid="{3ACEE9F1-ADBC-4859-AC5D-C82C0E43227D}"/>
+    <hyperlink ref="A13" location="Scalar!A1" display="EQ3_maxstor" xr:uid="{EFB0D337-CC52-43FC-92CC-8E464DBB53C2}"/>
+    <hyperlink ref="A14" location="EQ4_MaxR!A1" display="EQ4_MaxR" xr:uid="{5B630DC5-0F41-4674-AE6E-AD1A17528778}"/>
+    <hyperlink ref="A15" location="EQ5_MinR!A1" display="EQ5_MinR" xr:uid="{A841F22D-2E12-4701-B494-7F4306474FEF}"/>
+    <hyperlink ref="A16" location="EQ6_Rel_Range!A1" display="EQ6_Rel_Range" xr:uid="{51FFADE9-324D-4F2B-9FD1-D0518CA7A1E6}"/>
+    <hyperlink ref="A17" location="Scalar!A1" display="EQ7_RelVolume" xr:uid="{E1257F23-9208-4375-A247-7879BECD54EE}"/>
+    <hyperlink ref="A18" location="EQ8_OffPeak_Release!A1" display="EQ8_OffPeak_Release" xr:uid="{7DF8342E-2B04-4298-BC80-94C88A98E810}"/>
+    <hyperlink ref="A19" location="EQ9_EnergyGen_Max!A1" display="EQ9_EnergyGen_Max" xr:uid="{46F30C83-BE7E-4445-8E44-97E3783DE502}"/>
+    <hyperlink ref="A20" location="Scalar!A1" display="evap" xr:uid="{03C9814D-8B32-46C5-998A-0BA207E0B5C7}"/>
+    <hyperlink ref="A21" location="Scalar!A1" display="FStore" xr:uid="{4D8A57D7-6709-4C4D-818D-8BBDE39053E3}"/>
+    <hyperlink ref="A22" location="Scalar!A1" display="Inflow" xr:uid="{FABAFAE2-E836-4C01-97AD-18B960DF83D8}"/>
+    <hyperlink ref="A23" location="Scalar!A1" display="Initstorage" xr:uid="{D3F1E040-3CEA-49F8-9B41-9B801FEF0D16}"/>
+    <hyperlink ref="A24" location="Scalar!A1" display="maxRel" xr:uid="{52E655BF-5DDF-4CB2-9B05-9D4CBE1EDBA5}"/>
+    <hyperlink ref="A25" location="Scalar!A1" display="maxstorage" xr:uid="{946CA43F-F400-4D0A-896E-DB90440C999C}"/>
+    <hyperlink ref="A26" location="Scalar!A1" display="minRel" xr:uid="{8F96293D-737D-47F3-A37E-1971A75317E7}"/>
+    <hyperlink ref="A27" location="Scalar!A1" display="minstorage" xr:uid="{AC560C2D-7538-4DDD-9450-194B296C9066}"/>
+    <hyperlink ref="A28" location="ModelResults!A1" display="ModelResults" xr:uid="{15A77AB0-7F4E-469F-BF9B-40A613A36206}"/>
+    <hyperlink ref="A29" location="modpar!A1" display="modpar" xr:uid="{5F39274C-94C0-4999-824C-EFF8284A6680}"/>
+    <hyperlink ref="A30" location="Num_Days!A1" display="Num_Days" xr:uid="{3BC34BA8-763B-4313-B1BE-F8FA709FA07B}"/>
+    <hyperlink ref="A31" location="Scalar!A1" display="ObjectiveVal" xr:uid="{A6E4B498-1619-4076-9A36-85DC0D345AEA}"/>
+    <hyperlink ref="A32" location="Observed_Rel!A1" display="Observed_Rel" xr:uid="{474DBC37-2BE0-4573-8BCF-B13B65D270E5}"/>
+    <hyperlink ref="A33" location="p!A1" display="p" xr:uid="{623AF783-84D8-459E-B43B-786CA014EDE0}"/>
+    <hyperlink ref="A35" location="Scalar!A1" display="Released_vol" xr:uid="{34A44A2A-0C73-4F1F-898A-527EFA9BEF35}"/>
+    <hyperlink ref="A36" location="RStore!A1" display="RStore" xr:uid="{BF41AD91-D43D-4BED-9507-6AC2143C987D}"/>
+    <hyperlink ref="A37" location="Scalar!A1" display="Saturdays" xr:uid="{ABA8F7B9-B96E-4F12-9424-3B76A97ACE3F}"/>
+    <hyperlink ref="A38" location="Scalar!A1" display="Sstore" xr:uid="{7510B936-86E0-4DEB-86B6-2B47D6377DC3}"/>
+    <hyperlink ref="A39" location="Scalar!A1" display="storage" xr:uid="{BEA37F87-488C-4E64-8363-D96887F9AD2B}"/>
+    <hyperlink ref="A40" location="Scalar!A1" display="Sundays" xr:uid="{DA00B875-9E03-4434-A8BF-7CAC91FC507D}"/>
+    <hyperlink ref="A41" location="Scalar!A1" display="Totaldays" xr:uid="{F8523380-F3CC-4DF9-B560-62A61E209A71}"/>
+    <hyperlink ref="A42" location="Scalar!A1" display="Weekdays" xr:uid="{0771F5A6-E83F-4E5D-AE3A-BD4C6B468B7F}"/>
+    <hyperlink ref="A43" location="XStore!A1" display="XStore" xr:uid="{1A2092C8-69AB-4612-A32E-0648B349D7B4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{946ADFAA-13A5-4A39-A506-6B4EAA720FEA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9A70D67-2364-4759-A62D-A9C5DE56C17C}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1662,16 +1662,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E6" xr:uid="{6025A672-19CD-45CD-A2A3-361899A6AE55}"/>
+  <autoFilter ref="A3:E6" xr:uid="{01D6B139-74F9-4015-8F66-24734AB07596}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{C968D1E2-A12A-4F4C-B99A-27CD50B34613}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{87B27487-B977-4003-A479-18A0C5DC20A1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EB6D757-E069-4B1E-97D8-31FE732FEA05}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38B50550-5A06-4141-8F6B-ACDC22D2136D}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1766,16 +1766,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E6" xr:uid="{C7ACCA96-BCDE-496A-A95A-AFE68A8B03C3}"/>
+  <autoFilter ref="A3:E6" xr:uid="{6DA23003-8989-4786-8145-580BA7CA6009}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{5B7AF1E8-E730-494E-B1B5-3331900A5882}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{B0EEC71A-E7DD-4785-81DF-1AF4191E1C5B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F31EB994-C46C-4CF8-94C4-F5A9D1384C4F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07CDE573-C383-4D27-BAFD-302F49286561}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1942,16 +1942,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:F9" xr:uid="{A64AD377-E2D1-43F4-B6B7-B979837BF067}"/>
+  <autoFilter ref="A3:F9" xr:uid="{8636D4F6-31DB-495E-A212-74796EAECE27}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{9CD19652-B2B0-4BF6-A9E3-A5E6C71E208E}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{2B625A49-76AB-45B5-9689-F8BCE160604D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74C77DFA-ECB7-4D10-8E4D-BD0B7C0E84DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{754E8485-E55F-4A42-ABF6-CD81B1AEAA0E}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2002,16 +2002,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:B5" xr:uid="{369F32ED-F35D-4B34-B042-B5347CF4B00A}"/>
+  <autoFilter ref="A3:B5" xr:uid="{1D236D44-D441-4994-8F39-45C12E848482}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{B31B12E5-2C67-4C40-92E2-EF0140A33196}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{945BC9D9-715F-4E20-9A43-7F977AEBE6BC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75E69C37-0D12-4600-9AFE-28D893E6723E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77F65773-20CF-4C5D-A014-74B7E6BAB72C}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2059,16 +2059,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:A5" xr:uid="{4547DB8E-1273-47F1-BECC-2AB1ED6DC5CE}"/>
+  <autoFilter ref="A3:A5" xr:uid="{CCDB95DF-2BC0-4D20-AD9A-33E2CDC94EBF}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{C66C6276-127A-4ECF-BC64-DC7923999D57}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{4D665326-5DB8-429C-9620-A6EA1C45E943}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D64619E1-F608-4AB8-A437-65A2CF18F4EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB805803-F64D-464B-996F-85E7F82C53CF}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2127,16 +2127,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:B6" xr:uid="{2187A08F-EB18-4E07-B7BD-B584AC2BD8B2}"/>
+  <autoFilter ref="A3:B6" xr:uid="{DC17061A-EAF4-4854-9F12-51BDFD61266C}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{97ED983E-02E7-4111-AC62-B8E866F142C2}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{1E74C05F-0C3F-4E1E-842D-BD57BE887F56}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{651CE981-AE69-4A53-8926-6C679D4ECF1B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C73D3E-8B85-4448-8B31-0B64A115F297}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2240,16 +2240,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:C9" xr:uid="{3C70565C-AA7A-430C-8F9A-B31E3E5F1982}"/>
+  <autoFilter ref="A3:C9" xr:uid="{42608AC3-5547-4CA4-B812-DD6DA50088D9}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{777DED19-9755-420A-AF04-9C9A52BD2EF1}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{0D0A5C9E-73BA-41E3-B8CA-2ECE279D5E37}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DDF326F-B75A-4132-BF21-B2556EE71EE3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72A4EE21-4748-4153-8DB6-FA71CB3A66BA}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2297,16 +2297,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:A5" xr:uid="{D9118E65-7FDB-4249-B1DC-473CAF680484}"/>
+  <autoFilter ref="A3:A5" xr:uid="{21B907F7-2DCE-41AC-AECE-C0158483F7C7}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{82C35785-2948-4233-AC3C-5F8AF4D7930A}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{B2D416FF-4581-4E31-81F6-0BAC6298A0B8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C57EDFB-3888-43EA-ADD9-EEC1D0B9D138}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5271EC7-FBAE-4CD1-8052-A3615B99F0C6}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2410,16 +2410,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:C9" xr:uid="{B6B62B50-CBEA-484D-A487-A1DE41D4CF4B}"/>
+  <autoFilter ref="A3:C9" xr:uid="{F017B9F7-F686-4030-B376-6EB3E49AAF57}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{40908EC3-C194-4FD3-A118-50EE18E3E3D5}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{9C1ED945-CA9C-4968-ADA5-625D86F3B072}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12AB7618-5348-42CC-88B7-1CAFAFFB785D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0A3BC84-5553-47EE-9832-3DAF2C9EF736}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2523,16 +2523,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:C9" xr:uid="{2D0684C6-18F2-4E03-9D9A-C5A98128682C}"/>
+  <autoFilter ref="A3:C9" xr:uid="{49A51A84-DD27-4EA8-B278-BF3B8418119C}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{071F3D56-94AD-4F53-9CB9-80D225452480}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{08095395-B465-4211-A95A-0F07EEF5653E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC43ACF5-0C89-4D12-889D-D88E3A1F31A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F522D775-84BE-4928-A3BE-A6BF11C2F48C}">
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2593,7 +2593,7 @@
         <v>64</v>
       </c>
       <c r="B6">
-        <v>17093748.540342398</v>
+        <v>19241730.7492336</v>
       </c>
       <c r="C6" t="s">
         <v>65</v>
@@ -2922,14 +2922,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{BE1F7F6F-4799-4DC2-9665-B8B39904A9A2}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{F25EA51B-59E7-4D58-AC15-F3A53876BD31}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{273A6DB8-DA05-4C47-A3F6-D0BEA2655F9C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{874C9CB2-DF2B-4E97-99A6-EC4A11C4D763}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2976,16 +2976,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:A6" xr:uid="{80F738DA-CFF2-4DB2-8806-F8BFB10A9BF0}"/>
+  <autoFilter ref="A3:A6" xr:uid="{ACBED014-3A0A-4299-8EB0-C22556EF20DA}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{6A943706-9EEB-4881-8687-CA9D92F90CA5}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{EA53403B-1730-4F48-8D7A-1D33ED3F5A81}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{135D6E1A-3A73-41C1-A1D7-8D86EF311416}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77DA0026-8283-43C4-9DFF-B120D138B9FC}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3036,16 +3036,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:B5" xr:uid="{2CAED905-3410-47EE-BC25-EAF1DDF71307}"/>
+  <autoFilter ref="A3:B5" xr:uid="{9F20B45A-5675-4668-844D-E379AD11FC17}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{F291D2DC-C7C2-49D9-8886-927D92A7C2CC}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{B5D3DCC3-9B48-48EF-B198-8AF3B091F1E2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FF75381-4612-403F-8A87-D5BA7E1907A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BE219CD-7A48-486A-B288-FAA215E08397}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3101,7 +3101,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>70.010000000000005</v>
+        <v>52.19</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3145,20 +3145,20 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>52.19</v>
+        <v>70.010000000000005</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:C9" xr:uid="{811CD78D-ABCD-45E5-B0BE-D923198C518F}"/>
+  <autoFilter ref="A3:C9" xr:uid="{7C3F9554-EE20-4DCD-BADA-0603AE488F06}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{C8F0FF8F-37C1-48A5-8B5A-54184C567177}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{EF9E9B27-E370-4656-AC62-03F4C2304220}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{546B5216-0A80-4B80-9793-81D56F6CDE5B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED0390B-E139-4E7C-B6C6-F2142A541DF0}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3241,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>350.05</v>
+        <v>260.95</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3321,20 +3321,20 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1043.8</v>
+        <v>1400.2</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:F9" xr:uid="{1D67C28B-3450-423A-9DCC-893A1157D77B}"/>
+  <autoFilter ref="A3:F9" xr:uid="{60649BAB-B90E-4BBA-9B01-863E409A4216}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{03024288-1070-49E2-920C-A5A75A2E5D4C}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{C3624B27-DBFC-4034-8825-441CDFFB2CD7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43521C1B-267E-47FF-91AE-D99CDB7B7819}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8203F26C-A2D6-432E-B316-AAE7C65EB0D5}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3417,7 +3417,7 @@
         <v>10688.22</v>
       </c>
       <c r="F5">
-        <v>208.06972000000002</v>
+        <v>155.10867999999999</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3497,20 +3497,20 @@
         <v>12811.5</v>
       </c>
       <c r="F9">
-        <v>620.43471999999997</v>
+        <v>832.27888000000007</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:F9" xr:uid="{0768B156-B65C-4DC1-A314-A49678CDC55F}"/>
+  <autoFilter ref="A3:F9" xr:uid="{6AD1FEE0-81E6-4860-80D5-E8549E4022BB}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{C869ABE4-3F3A-4EE8-BBBD-5B8C4EEF458B}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{0EE926F4-EC37-4271-A369-9DCC0D2EF352}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F274185C-EA50-4E17-953D-541D37CCF304}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0E8982-E344-47A5-90D3-133F2D8B1D61}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3677,16 +3677,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:F9" xr:uid="{E57908E8-7557-4B3E-A5D4-AA6602B3D9EC}"/>
+  <autoFilter ref="A3:F9" xr:uid="{23FB69D4-FA01-42FA-93D2-3CBC82D0B9B1}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{08944213-FB2F-4A78-A6E1-71932E5287AE}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{08711BC6-1426-4312-BAAB-94CDEA5F205A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EBF8D12-C4CE-4CD0-9BDD-47B9F122560D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1315AAD1-0960-4D44-A708-32329FA800E9}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3853,9 +3853,9 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:F9" xr:uid="{81A82114-BD56-416D-BE80-F61B9E8D1657}"/>
+  <autoFilter ref="A3:F9" xr:uid="{59074584-D513-4488-BE4D-42A1AF740B6F}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{E84022F8-FEA5-4D4A-89A4-4B09F0E86CCE}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{99C41673-9370-4D6C-9EBC-3257BBE981B9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
